--- a/suitability/ecocrop_runs.xlsx
+++ b/suitability/ecocrop_runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anibi\Documents\codes\WFP-profiles\suitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C4485-1A55-4DE0-B2E2-DD2CDF00810F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7FCC9-94AD-4E42-9F26-73CEEB9B67C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{38876EFD-73BB-403A-8494-D93714BC772B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="299">
   <si>
     <t>NAME</t>
   </si>
@@ -881,13 +881,64 @@
   </si>
   <si>
     <t>"maize_all","peas","bean","cassava","ship/goat","poultry","cattle"</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
+    <t>Zone 3</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Plaine de l'Imbo</t>
+  </si>
+  <si>
+    <t>Depressions de l'est</t>
+  </si>
+  <si>
+    <t>Depressions du Nord</t>
+  </si>
+  <si>
+    <t>Plateaux secs de l'Est</t>
+  </si>
+  <si>
+    <t>"bean", "cassava", "maize_all"</t>
+  </si>
+  <si>
+    <t>"cassava", "bean", "maize_all"</t>
+  </si>
+  <si>
+    <t>"African_rice", "maize_all", "cassava"</t>
+  </si>
+  <si>
+    <t>"maize_all","African_rice","bean","cattle","ship/goat","poultry"</t>
+  </si>
+  <si>
+    <t>"bean", "sorghum_all", "cassava"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +961,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -944,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +1022,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,10 +1868,10 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6488,7 +6548,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6522,7 +6582,7 @@
         <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>275</v>
@@ -6539,7 +6599,7 @@
         <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>276</v>
@@ -6556,7 +6616,7 @@
         <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>277</v>
@@ -6573,7 +6633,7 @@
         <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>278</v>
@@ -6583,6 +6643,125 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">

--- a/suitability/ecocrop_runs.xlsx
+++ b/suitability/ecocrop_runs.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anibi\Documents\codes\WFP-profiles\suitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7FCC9-94AD-4E42-9F26-73CEEB9B67C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60755FEF-8091-4268-A27A-0919B8F9BFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{38876EFD-73BB-403A-8494-D93714BC772B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{38876EFD-73BB-403A-8494-D93714BC772B}"/>
   </bookViews>
   <sheets>
     <sheet name="ecocrop_fao" sheetId="1" r:id="rId1"/>
     <sheet name="ecocrop_mod" sheetId="2" r:id="rId2"/>
     <sheet name="tcrops" sheetId="3" r:id="rId3"/>
+    <sheet name="WFP" sheetId="5" r:id="rId4"/>
+    <sheet name="tcrops_1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="333">
   <si>
     <t>NAME</t>
   </si>
@@ -932,6 +934,108 @@
   </si>
   <si>
     <t>"bean", "sorghum_all", "cassava"</t>
+  </si>
+  <si>
+    <t>iso3</t>
+  </si>
+  <si>
+    <t>cropname</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize_all, African_rice, Rice_upland__Indica_, Rice__paddy__Indica_, bean, </t>
+  </si>
+  <si>
+    <t>African_rice, Rice_upland__Indica_, Rice__paddy__Indica_, groundnut, maize_all, cassava</t>
+  </si>
+  <si>
+    <t>African_rice, Rice_upland__Indica_, Rice__paddy__Indica_, maize_all, cassava, bean, sorghum_all</t>
+  </si>
+  <si>
+    <t>maize_all, sorghum_all, seasme, cowpea</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>African_rice, Rice_upland__Indica_, Rice__paddy__Indica_, Wheat__common, maize_all, lentil</t>
+  </si>
+  <si>
+    <t>African_rice, Rice_upland__Indica_, Rice__paddy__Indica_, maize_all, pearl_millet, potato, Cashew, cassava</t>
+  </si>
+  <si>
+    <t>maize_all, Chick_pea, cowpea, yams, cassava, bean, Pigeon_Pea</t>
+  </si>
+  <si>
+    <t>Wheat__common, pearl_millet, maize_all</t>
+  </si>
+  <si>
+    <t>pearl_millet, sorghum_all, African_rice, Rice_upland__Indica_, Rice__paddy__Indica_,cowpea</t>
+  </si>
+  <si>
+    <t>alfalfa</t>
+  </si>
+  <si>
+    <t>PAK, NPL</t>
+  </si>
+  <si>
+    <t>SOM, TZA</t>
+  </si>
+  <si>
+    <t>NPL, NER, TZA, GNB</t>
+  </si>
+  <si>
+    <t>PAK, GNB</t>
+  </si>
+  <si>
+    <t>PAK, NER, GNB</t>
+  </si>
+  <si>
+    <t>NER, SOM, TZA, BDI</t>
+  </si>
+  <si>
+    <t>NPL, NER, TZA, GNB, BDI, GIN</t>
+  </si>
+  <si>
+    <t>NER, TZA, GNB, BDI, GIN</t>
+  </si>
+  <si>
+    <t>Coffee robusta</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>TZA, BDI, HTI</t>
+  </si>
+  <si>
+    <t>NER, SOM, TZA, HTI</t>
+  </si>
+  <si>
+    <t>GNB, BDI, GIN, HTI</t>
+  </si>
+  <si>
+    <t>Lentil</t>
+  </si>
+  <si>
+    <t>Millet, common</t>
+  </si>
+  <si>
+    <t>PAK, NPL, SOM, TZA, BDI, GIN, HTI, GNB</t>
   </si>
 </sst>
 </file>
@@ -6547,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6722C23-4B52-4960-A8F2-1BE49B60F8E4}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6777,4 +6881,3519 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CD24C1-E141-4CC8-A8BB-1CE2B3033656}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="20.05078125" customWidth="1"/>
+    <col min="2" max="2" width="16.734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2">
+        <v>365</v>
+      </c>
+      <c r="G2">
+        <v>365</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>700</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
+        <v>1300</v>
+      </c>
+      <c r="Q2">
+        <v>5000</v>
+      </c>
+      <c r="R2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>170</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13.5</v>
+      </c>
+      <c r="K4">
+        <v>17.5</v>
+      </c>
+      <c r="L4">
+        <v>23.1</v>
+      </c>
+      <c r="M4">
+        <v>25.6</v>
+      </c>
+      <c r="N4">
+        <v>200</v>
+      </c>
+      <c r="O4">
+        <v>363</v>
+      </c>
+      <c r="P4">
+        <v>450</v>
+      </c>
+      <c r="Q4">
+        <v>710</v>
+      </c>
+      <c r="R4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5">
+        <v>240</v>
+      </c>
+      <c r="G5">
+        <v>240</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>800</v>
+      </c>
+      <c r="P5">
+        <v>2200</v>
+      </c>
+      <c r="Q5">
+        <v>2800</v>
+      </c>
+      <c r="R5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>250</v>
+      </c>
+      <c r="O6">
+        <v>350</v>
+      </c>
+      <c r="P6">
+        <v>550</v>
+      </c>
+      <c r="Q6">
+        <v>600</v>
+      </c>
+      <c r="R6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>-0.4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>20.5</v>
+      </c>
+      <c r="M7">
+        <v>29.4</v>
+      </c>
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+      <c r="P7">
+        <v>970</v>
+      </c>
+      <c r="Q7">
+        <v>1400</v>
+      </c>
+      <c r="R7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>150</v>
+      </c>
+      <c r="R8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>150</v>
+      </c>
+      <c r="R9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>180</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11">
+        <v>600</v>
+      </c>
+      <c r="Q11">
+        <v>1500</v>
+      </c>
+      <c r="R11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>23.1</v>
+      </c>
+      <c r="K12">
+        <v>26.8</v>
+      </c>
+      <c r="L12">
+        <v>31.4</v>
+      </c>
+      <c r="M12">
+        <v>32.4</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>1540</v>
+      </c>
+      <c r="Q12">
+        <v>2760</v>
+      </c>
+      <c r="R12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>180</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>150</v>
+      </c>
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <v>450</v>
+      </c>
+      <c r="Q13">
+        <v>600</v>
+      </c>
+      <c r="R13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>513</v>
+      </c>
+      <c r="O14">
+        <v>632</v>
+      </c>
+      <c r="P14">
+        <v>1130</v>
+      </c>
+      <c r="Q14">
+        <v>1510</v>
+      </c>
+      <c r="R14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>258</v>
+      </c>
+      <c r="O15">
+        <v>357</v>
+      </c>
+      <c r="P15">
+        <v>594</v>
+      </c>
+      <c r="Q15">
+        <v>731</v>
+      </c>
+      <c r="R15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>180</v>
+      </c>
+      <c r="O16">
+        <v>347</v>
+      </c>
+      <c r="P16">
+        <v>760</v>
+      </c>
+      <c r="Q16">
+        <v>1007</v>
+      </c>
+      <c r="R16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>336</v>
+      </c>
+      <c r="O17">
+        <v>461</v>
+      </c>
+      <c r="P17">
+        <v>858</v>
+      </c>
+      <c r="Q17">
+        <v>1129</v>
+      </c>
+      <c r="R17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>230</v>
+      </c>
+      <c r="O18">
+        <v>475</v>
+      </c>
+      <c r="P18">
+        <v>1436</v>
+      </c>
+      <c r="Q18">
+        <v>2152</v>
+      </c>
+      <c r="R18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>446</v>
+      </c>
+      <c r="O19">
+        <v>527</v>
+      </c>
+      <c r="P19">
+        <v>1141</v>
+      </c>
+      <c r="Q19">
+        <v>1675</v>
+      </c>
+      <c r="R19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>10.3</v>
+      </c>
+      <c r="J20">
+        <v>13.3</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>200</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>600</v>
+      </c>
+      <c r="Q20">
+        <v>1500</v>
+      </c>
+      <c r="R20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21">
+        <v>120</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>-0.8</v>
+      </c>
+      <c r="J21">
+        <v>3.75</v>
+      </c>
+      <c r="K21">
+        <v>12.4</v>
+      </c>
+      <c r="L21">
+        <v>17.8</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>150</v>
+      </c>
+      <c r="O21">
+        <v>251.25</v>
+      </c>
+      <c r="P21">
+        <v>326.5</v>
+      </c>
+      <c r="Q21">
+        <v>785.5</v>
+      </c>
+      <c r="R21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>270</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K22">
+        <v>13.6</v>
+      </c>
+      <c r="L22">
+        <v>24.6</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>160</v>
+      </c>
+      <c r="O22">
+        <v>500</v>
+      </c>
+      <c r="P22">
+        <v>1800</v>
+      </c>
+      <c r="Q22">
+        <v>2780</v>
+      </c>
+      <c r="R22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>270</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>14.5</v>
+      </c>
+      <c r="J23">
+        <v>17.8</v>
+      </c>
+      <c r="K23">
+        <v>26.7</v>
+      </c>
+      <c r="L23">
+        <v>37.4</v>
+      </c>
+      <c r="M23">
+        <v>39.1</v>
+      </c>
+      <c r="N23">
+        <v>160</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+      <c r="P23">
+        <v>1800</v>
+      </c>
+      <c r="Q23">
+        <v>2780</v>
+      </c>
+      <c r="R23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24">
+        <v>210</v>
+      </c>
+      <c r="G24">
+        <v>210</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>750</v>
+      </c>
+      <c r="O24">
+        <v>1100</v>
+      </c>
+      <c r="P24">
+        <v>1400</v>
+      </c>
+      <c r="Q24">
+        <v>2000</v>
+      </c>
+      <c r="R24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25">
+        <v>75</v>
+      </c>
+      <c r="G25">
+        <v>180</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5.6</v>
+      </c>
+      <c r="J25">
+        <v>8.6</v>
+      </c>
+      <c r="K25">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L25">
+        <v>27.2</v>
+      </c>
+      <c r="M25">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>350</v>
+      </c>
+      <c r="O25">
+        <v>500</v>
+      </c>
+      <c r="P25">
+        <v>1045</v>
+      </c>
+      <c r="Q25">
+        <v>1500</v>
+      </c>
+      <c r="R25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="s">
+        <v>190</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>190</v>
+      </c>
+      <c r="R26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>190</v>
+      </c>
+      <c r="R27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>190</v>
+      </c>
+      <c r="R28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" t="s">
+        <v>190</v>
+      </c>
+      <c r="N30" t="s">
+        <v>190</v>
+      </c>
+      <c r="O30" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>190</v>
+      </c>
+      <c r="R30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" t="s">
+        <v>190</v>
+      </c>
+      <c r="N31" t="s">
+        <v>190</v>
+      </c>
+      <c r="O31" t="s">
+        <v>190</v>
+      </c>
+      <c r="P31" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>190</v>
+      </c>
+      <c r="R31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32" t="s">
+        <v>190</v>
+      </c>
+      <c r="M32" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" t="s">
+        <v>190</v>
+      </c>
+      <c r="O32" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>190</v>
+      </c>
+      <c r="R32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" t="s">
+        <v>190</v>
+      </c>
+      <c r="L33" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s">
+        <v>190</v>
+      </c>
+      <c r="N33" t="s">
+        <v>190</v>
+      </c>
+      <c r="O33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>190</v>
+      </c>
+      <c r="R33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" t="s">
+        <v>190</v>
+      </c>
+      <c r="L34" t="s">
+        <v>190</v>
+      </c>
+      <c r="M34" t="s">
+        <v>190</v>
+      </c>
+      <c r="N34" t="s">
+        <v>190</v>
+      </c>
+      <c r="O34" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>190</v>
+      </c>
+      <c r="R34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" t="s">
+        <v>190</v>
+      </c>
+      <c r="O35" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>190</v>
+      </c>
+      <c r="R35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" t="s">
+        <v>190</v>
+      </c>
+      <c r="N36" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>190</v>
+      </c>
+      <c r="R36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37" t="s">
+        <v>190</v>
+      </c>
+      <c r="O37" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>190</v>
+      </c>
+      <c r="R37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" t="s">
+        <v>190</v>
+      </c>
+      <c r="O38" t="s">
+        <v>190</v>
+      </c>
+      <c r="P38" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>190</v>
+      </c>
+      <c r="R38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" t="s">
+        <v>190</v>
+      </c>
+      <c r="L39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M39" t="s">
+        <v>190</v>
+      </c>
+      <c r="N39" t="s">
+        <v>190</v>
+      </c>
+      <c r="O39" t="s">
+        <v>190</v>
+      </c>
+      <c r="P39" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L40" t="s">
+        <v>190</v>
+      </c>
+      <c r="M40" t="s">
+        <v>190</v>
+      </c>
+      <c r="N40" t="s">
+        <v>190</v>
+      </c>
+      <c r="O40" t="s">
+        <v>190</v>
+      </c>
+      <c r="P40" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>190</v>
+      </c>
+      <c r="R40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>190</v>
+      </c>
+      <c r="J41" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L41" t="s">
+        <v>190</v>
+      </c>
+      <c r="M41" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" t="s">
+        <v>190</v>
+      </c>
+      <c r="O41" t="s">
+        <v>190</v>
+      </c>
+      <c r="P41" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>190</v>
+      </c>
+      <c r="R41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" t="s">
+        <v>190</v>
+      </c>
+      <c r="L42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" t="s">
+        <v>190</v>
+      </c>
+      <c r="N42" t="s">
+        <v>190</v>
+      </c>
+      <c r="O42" t="s">
+        <v>190</v>
+      </c>
+      <c r="P42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>190</v>
+      </c>
+      <c r="R42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" t="s">
+        <v>190</v>
+      </c>
+      <c r="L43" t="s">
+        <v>190</v>
+      </c>
+      <c r="M43" t="s">
+        <v>190</v>
+      </c>
+      <c r="N43" t="s">
+        <v>190</v>
+      </c>
+      <c r="O43" t="s">
+        <v>190</v>
+      </c>
+      <c r="P43" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>190</v>
+      </c>
+      <c r="R43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" t="s">
+        <v>190</v>
+      </c>
+      <c r="L44" t="s">
+        <v>190</v>
+      </c>
+      <c r="M44" t="s">
+        <v>190</v>
+      </c>
+      <c r="N44" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" t="s">
+        <v>190</v>
+      </c>
+      <c r="P44" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>190</v>
+      </c>
+      <c r="R44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" t="s">
+        <v>190</v>
+      </c>
+      <c r="L45" t="s">
+        <v>190</v>
+      </c>
+      <c r="M45" t="s">
+        <v>190</v>
+      </c>
+      <c r="N45" t="s">
+        <v>190</v>
+      </c>
+      <c r="O45" t="s">
+        <v>190</v>
+      </c>
+      <c r="P45" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
+        <v>190</v>
+      </c>
+      <c r="H46" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s">
+        <v>190</v>
+      </c>
+      <c r="M46" t="s">
+        <v>190</v>
+      </c>
+      <c r="N46" t="s">
+        <v>190</v>
+      </c>
+      <c r="O46" t="s">
+        <v>190</v>
+      </c>
+      <c r="P46" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>190</v>
+      </c>
+      <c r="R46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" t="s">
+        <v>190</v>
+      </c>
+      <c r="L47" t="s">
+        <v>190</v>
+      </c>
+      <c r="M47" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" t="s">
+        <v>190</v>
+      </c>
+      <c r="O47" t="s">
+        <v>190</v>
+      </c>
+      <c r="P47" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>190</v>
+      </c>
+      <c r="R47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" t="s">
+        <v>190</v>
+      </c>
+      <c r="N48" t="s">
+        <v>190</v>
+      </c>
+      <c r="O48" t="s">
+        <v>190</v>
+      </c>
+      <c r="P48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>190</v>
+      </c>
+      <c r="R48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49" t="s">
+        <v>190</v>
+      </c>
+      <c r="N49" t="s">
+        <v>190</v>
+      </c>
+      <c r="O49" t="s">
+        <v>190</v>
+      </c>
+      <c r="P49" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>190</v>
+      </c>
+      <c r="R49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" t="s">
+        <v>190</v>
+      </c>
+      <c r="M50" t="s">
+        <v>190</v>
+      </c>
+      <c r="N50" t="s">
+        <v>190</v>
+      </c>
+      <c r="O50" t="s">
+        <v>190</v>
+      </c>
+      <c r="P50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>190</v>
+      </c>
+      <c r="R50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51">
+        <v>120</v>
+      </c>
+      <c r="G51">
+        <v>120</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>250</v>
+      </c>
+      <c r="O51">
+        <v>500</v>
+      </c>
+      <c r="P51">
+        <v>800</v>
+      </c>
+      <c r="Q51">
+        <v>2000</v>
+      </c>
+      <c r="R51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52">
+        <v>120</v>
+      </c>
+      <c r="G52">
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>15</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>30.8</v>
+      </c>
+      <c r="N52">
+        <v>250</v>
+      </c>
+      <c r="O52">
+        <v>500</v>
+      </c>
+      <c r="P52">
+        <v>800</v>
+      </c>
+      <c r="Q52">
+        <v>2000</v>
+      </c>
+      <c r="R52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53">
+        <v>120</v>
+      </c>
+      <c r="G53">
+        <v>120</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>28</v>
+      </c>
+      <c r="N53">
+        <v>200</v>
+      </c>
+      <c r="O53">
+        <v>400</v>
+      </c>
+      <c r="P53">
+        <v>640</v>
+      </c>
+      <c r="Q53">
+        <v>2000</v>
+      </c>
+      <c r="R53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54">
+        <v>90</v>
+      </c>
+      <c r="G54">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>28</v>
+      </c>
+      <c r="N54">
+        <v>188</v>
+      </c>
+      <c r="O54">
+        <v>375</v>
+      </c>
+      <c r="P54">
+        <v>600</v>
+      </c>
+      <c r="Q54">
+        <v>1500</v>
+      </c>
+      <c r="R54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55">
+        <v>135</v>
+      </c>
+      <c r="G55">
+        <v>135</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>28</v>
+      </c>
+      <c r="M55">
+        <v>38</v>
+      </c>
+      <c r="N55">
+        <v>350</v>
+      </c>
+      <c r="O55">
+        <v>750</v>
+      </c>
+      <c r="P55">
+        <v>2000</v>
+      </c>
+      <c r="Q55">
+        <v>5000</v>
+      </c>
+      <c r="R55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56">
+        <v>135</v>
+      </c>
+      <c r="G56">
+        <v>135</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>18</v>
+      </c>
+      <c r="L56">
+        <v>30.8</v>
+      </c>
+      <c r="M56">
+        <v>41.8</v>
+      </c>
+      <c r="N56">
+        <v>350</v>
+      </c>
+      <c r="O56">
+        <v>750</v>
+      </c>
+      <c r="P56">
+        <v>2000</v>
+      </c>
+      <c r="Q56">
+        <v>5000</v>
+      </c>
+      <c r="R56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57">
+        <v>135</v>
+      </c>
+      <c r="G57">
+        <v>135</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>18</v>
+      </c>
+      <c r="L57">
+        <v>28</v>
+      </c>
+      <c r="M57">
+        <v>38</v>
+      </c>
+      <c r="N57">
+        <v>280</v>
+      </c>
+      <c r="O57">
+        <v>600</v>
+      </c>
+      <c r="P57">
+        <v>1600</v>
+      </c>
+      <c r="Q57">
+        <v>5000</v>
+      </c>
+      <c r="R57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58">
+        <v>90</v>
+      </c>
+      <c r="G58">
+        <v>90</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>18</v>
+      </c>
+      <c r="L58">
+        <v>28</v>
+      </c>
+      <c r="M58">
+        <v>38</v>
+      </c>
+      <c r="N58">
+        <v>233</v>
+      </c>
+      <c r="O58">
+        <v>500</v>
+      </c>
+      <c r="P58">
+        <v>1333</v>
+      </c>
+      <c r="Q58">
+        <v>3333</v>
+      </c>
+      <c r="R58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59">
+        <v>365</v>
+      </c>
+      <c r="G59">
+        <v>365</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>15</v>
+      </c>
+      <c r="K59">
+        <v>25</v>
+      </c>
+      <c r="L59">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>38</v>
+      </c>
+      <c r="N59">
+        <v>500</v>
+      </c>
+      <c r="O59">
+        <v>1000</v>
+      </c>
+      <c r="P59">
+        <v>1500</v>
+      </c>
+      <c r="Q59">
+        <v>5000</v>
+      </c>
+      <c r="R59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60">
+        <v>365</v>
+      </c>
+      <c r="G60">
+        <v>365</v>
+      </c>
+      <c r="H60">
+        <v>12</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>31.9</v>
+      </c>
+      <c r="M60">
+        <v>41.8</v>
+      </c>
+      <c r="N60">
+        <v>500</v>
+      </c>
+      <c r="O60">
+        <v>1000</v>
+      </c>
+      <c r="P60">
+        <v>1500</v>
+      </c>
+      <c r="Q60">
+        <v>5000</v>
+      </c>
+      <c r="R60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61">
+        <v>365</v>
+      </c>
+      <c r="G61">
+        <v>365</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>15</v>
+      </c>
+      <c r="K61">
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <v>29</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61">
+        <v>400</v>
+      </c>
+      <c r="O61">
+        <v>800</v>
+      </c>
+      <c r="P61">
+        <v>1200</v>
+      </c>
+      <c r="Q61">
+        <v>5000</v>
+      </c>
+      <c r="R61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62">
+        <v>270</v>
+      </c>
+      <c r="G62">
+        <v>270</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>15</v>
+      </c>
+      <c r="K62">
+        <v>25</v>
+      </c>
+      <c r="L62">
+        <v>29</v>
+      </c>
+      <c r="M62">
+        <v>38</v>
+      </c>
+      <c r="N62">
+        <v>370</v>
+      </c>
+      <c r="O62">
+        <v>740</v>
+      </c>
+      <c r="P62">
+        <v>1110</v>
+      </c>
+      <c r="Q62">
+        <v>3699</v>
+      </c>
+      <c r="R62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C7F066-699F-4492-84DB-77B82F66418B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="78.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>